--- a/biology/Médecine/Samuel_Thomas_von_Sömmering/Samuel_Thomas_von_Sömmering.xlsx
+++ b/biology/Médecine/Samuel_Thomas_von_Sömmering/Samuel_Thomas_von_Sömmering.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Samuel_Thomas_von_S%C3%B6mmering</t>
+          <t>Samuel_Thomas_von_Sömmering</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Samuel Thomas von Sœmmering est un médecin, un anatomiste, un anthropologue, un paléontologue et un inventeur prussien, né le 28 janvier 1755 à Thorn[1], ville hanséatique de Prusse et mort le 2 mars 1830 à Francfort-sur-le-Main.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Samuel Thomas von Sœmmering est un médecin, un anatomiste, un anthropologue, un paléontologue et un inventeur prussien, né le 28 janvier 1755 à Thorn, ville hanséatique de Prusse et mort le 2 mars 1830 à Francfort-sur-le-Main.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samuel_Thomas_von_S%C3%B6mmering</t>
+          <t>Samuel_Thomas_von_Sömmering</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Thomas Sömmering est le neuvième enfant du médecin Johann Thomas Sömmering. Après avoir achevé ses études à Thorn en 1774, il part étudier la médecine à l’université de Göttingen de 1774-1778, et suit notamment les cours du célèbre anatomiste Johann Friedrich Blumenbach. Il est élu en 1780 à l'Académie des sciences de Göttingen. Il obtient la chaire d'anatomie à l'illustre Collegium Carolinum de Kassel, plus tard, à l'université de Mayence à partir de 1784. Doyen de cette université durant cinq années, il commence à exercer la médecine en 1795 à Francfort en raison de blocus de Mayence.
 Sömmering participe à l’introduction de la vaccine contre la variole. Il devient l’un des premiers membres de la Senckenbergische Naturforschende Gesellschaft et est nommé conseiller. Après avoir refusé des offres des universités d'Iéna et de Saint-Pétersbourg, il accepte, en 1804, l’invitation de l’Académie bavaroise des sciences à Munich. Sömmering y devient conseiller auprès de la cour et est anobli.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Samuel_Thomas_von_S%C3%B6mmering</t>
+          <t>Samuel_Thomas_von_Sömmering</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Activité scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il consacre une partie de sa thèse de médecine à l’organisation des nerfs crâniens, ses observations restant toujours valables aujourd’hui. Il publie de nombreuses publications dans le domaine de la médecine, en anatomie, en neuroanatomie (c’est lui qui découvre la macula de la rétine humaine), en anthropologie, en paléontologie[2], en astronomie et en philosophie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il consacre une partie de sa thèse de médecine à l’organisation des nerfs crâniens, ses observations restant toujours valables aujourd’hui. Il publie de nombreuses publications dans le domaine de la médecine, en anatomie, en neuroanatomie (c’est lui qui découvre la macula de la rétine humaine), en anthropologie, en paléontologie, en astronomie et en philosophie.
 Sömmering est également un inventeur prolifique. Il travaille notamment sur des télescopes et sur un télégraphe électrique en 1809. Deux ans plus tard, il développe le premier système télégraphique de Bavière, actuellement conservé à Muséum allemand des sciences et des techniques de Munich. Il s’intéresse également aux aérostats (c'est lui qui réalise le premier ballon à air chaud d'Allemagne). Il travaille également sur de nombreux sujets allant des taches solaires au vin.
 </t>
         </is>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Samuel_Thomas_von_S%C3%B6mmering</t>
+          <t>Samuel_Thomas_von_Sömmering</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de)Über die körperliche Verschiedenheit des Mohren vom Europär (1774)
 (de)Vom Hirn- und Rückenmark (Mainz 1788, 2. Aufl. 1792) ;
